--- a/ProyectoMaterias/ADA/Tablas Pert - BlindsTech.xlsx
+++ b/ProyectoMaterias/ADA/Tablas Pert - BlindsTech.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://animaeduuy-my.sharepoint.com/personal/dario_martinez_anima_edu_uy/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alumno\Documents\GitHub\BlindsTech\ProyectoMaterias\ADA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2D797B9-D738-4424-9E13-D71E8DA16379}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D920EE5-7BA7-4DA9-9259-D3A1B1162B67}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablas" sheetId="1" r:id="rId1"/>
-    <sheet name="Tareas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179020"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
   <si>
     <t>APP DEL CLIENTE</t>
   </si>
@@ -240,143 +239,13 @@
   </si>
   <si>
     <t>Q</t>
-  </si>
-  <si>
-    <t>Tareas App de Cliente:</t>
-  </si>
-  <si>
-    <t>Tareas App de Gestión:</t>
-  </si>
-  <si>
-    <t>Tareas Raspberry PI:</t>
-  </si>
-  <si>
-    <t>Generar interfaz para la
-configuración del funcionamiento
-de las persianas </t>
-  </si>
-  <si>
-    <t>Tener el sistema de
-alta, mod, baja </t>
-  </si>
-  <si>
-    <t>Generar app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conexión con RPI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tener creada la app escritorio </t>
-  </si>
-  <si>
-    <t>Conectar con RPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generar interfaz de perfiles </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conexión a DB </t>
-  </si>
-  <si>
-    <t>Conectar con BD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tener el área de reportes creada </t>
-  </si>
-  <si>
-    <t>El ldr debe mostrar la luminosidad del ambiente 
-Se debe poder cambiar mediante un scroll de 0 25 50 75 100 la luminosidad de la luz de una habitación indicada </t>
-  </si>
-  <si>
-    <t>Conexión con BD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recibir reportes desde la web </t>
-  </si>
-  <si>
-    <t>Crear la conexión del cliente al servidor Pasarela </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generar interfaz de funciones </t>
-  </si>
-  <si>
-    <t>Tener comunicación entre
-web y app escritorio </t>
-  </si>
-  <si>
-    <t>Conectar la rpi a wifi </t>
-  </si>
-  <si>
-    <t>Generar interfaz para configuración
- del modo automático  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tener el servidor pasarela </t>
-  </si>
-  <si>
-    <t>Identificar los pines de los servomotores de la persiana en el programa </t>
-  </si>
-  <si>
-    <t>Generar interfaz para la
-configuración el modo de voz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conectar la RPI al servidor </t>
-  </si>
-  <si>
-    <t>Generar interfaz para los reportes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conectar la app al servidor </t>
-  </si>
-  <si>
-    <t>Enviar al servidor el estado de la persiana desde la rpi y mostrarlo en el servidor con angular </t>
-  </si>
-  <si>
-    <t>Conectar con el sistema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear la conexión </t>
-  </si>
-  <si>
-    <t>Generar interfaz de registro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modificación de usuarios solo para administradores registrados </t>
-  </si>
-  <si>
-    <t>Generar interfaz para cambio de credenciales</t>
-  </si>
-  <si>
-    <t>Tener otra zona para que cada 24hs se corra un script el cual respaldo todos los archivos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardar registro bajo contraseña cifrada y usuarios definidos </t>
-  </si>
-  <si>
-    <t>Bloquear el sistema cuando se reciben ataques cibernéticos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funcionar correctamente en diferentes navegadores  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilizar los componentes necesarios para generar el responsive en las pantallas que lo requieran   </t>
-  </si>
-  <si>
-    <t>Generar interfaz para que el administrador pueda generar los cambios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tener la app generada </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generar interfases intuitivas   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,22 +269,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u val="double"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -423,21 +276,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF548235"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -529,34 +376,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -569,19 +388,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -686,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -703,74 +509,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -779,15 +567,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -796,14 +584,186 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="23">
     <dxf>
       <alignment wrapText="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -906,29 +866,68 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <top style="medium">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="0"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" wrapText="1" indent="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -936,9 +935,7 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -996,7 +993,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1013,37 +1010,17 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1051,164 +1028,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="0"/>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" wrapText="1" indent="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment wrapText="1"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
@@ -1227,34 +1046,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEE60B93-4436-409F-81F2-7298DB4458AB}" name="Table1" displayName="Table1" ref="A2:D20" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEE60B93-4436-409F-81F2-7298DB4458AB}" name="Table1" displayName="Table1" ref="A2:D20" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
   <autoFilter ref="A2:D20" xr:uid="{62BB43CA-1256-4E8C-A30B-655EAD419361}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{26DB9E75-0294-4181-AD05-6E5F36B042E5}" name="ID" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{BDF64AFC-E782-4ED1-9734-EBC25D0BCC8E}" name="Nombre" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{BFF9006C-097B-432D-B5B4-2296D83AB629}" name="Dependencia" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00E91299-5BE7-48BB-B3BE-A16F13C6AD28}" name="Duración (H)" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{26DB9E75-0294-4181-AD05-6E5F36B042E5}" name="ID" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{BDF64AFC-E782-4ED1-9734-EBC25D0BCC8E}" name="Nombre" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{BFF9006C-097B-432D-B5B4-2296D83AB629}" name="Dependencia" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00E91299-5BE7-48BB-B3BE-A16F13C6AD28}" name="Duración (H)" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A57795D0-67F5-4A65-8819-9D115B9C6790}" name="Table13" displayName="Table13" ref="F2:I20" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A57795D0-67F5-4A65-8819-9D115B9C6790}" name="Table13" displayName="Table13" ref="F2:I20" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
   <autoFilter ref="F2:I20" xr:uid="{97ABCFED-A185-45EB-9C0F-BEF2D0CA4086}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{19EBC21C-ECDC-4B3D-87CA-65BAC9FCC5ED}" name="ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{FFC24873-A2BE-4662-9D23-2E47B5EC304D}" name="Nombre" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{F62EB8EE-8F3B-4882-88B3-6483E5AA3519}" name="Dependencia" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{D0ADFAFE-4638-476F-BB88-EBF86E1C9A04}" name="Duración" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{19EBC21C-ECDC-4B3D-87CA-65BAC9FCC5ED}" name="ID" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{FFC24873-A2BE-4662-9D23-2E47B5EC304D}" name="Nombre" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{F62EB8EE-8F3B-4882-88B3-6483E5AA3519}" name="Dependencia" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{D0ADFAFE-4638-476F-BB88-EBF86E1C9A04}" name="Duración" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FA63953C-1CF7-47F0-94EC-663A09B55EB9}" name="Table134" displayName="Table134" ref="K2:N20" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
-  <autoFilter ref="K2:N20" xr:uid="{7D6DD7DA-5CAE-4C28-B12E-46A3E309B44C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FA63953C-1CF7-47F0-94EC-663A09B55EB9}" name="Table134" displayName="Table134" ref="K2:N13" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="K2:N13" xr:uid="{7D6DD7DA-5CAE-4C28-B12E-46A3E309B44C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8E7F6F90-D157-4B66-B709-59B1FBD92305}" name="ID" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{74C839BB-AEF1-457D-80C5-87FBE98C8AE9}" name="Nombre" dataDxfId="2"/>
@@ -1266,7 +1085,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1564,70 +1383,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="30" style="15" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="15" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="15" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="30" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="9" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19.5" thickBot="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
       <c r="S1" s="37"/>
     </row>
-    <row r="2" spans="1:19" ht="38.25" thickBot="1">
+    <row r="2" spans="1:19" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1639,10 +1456,10 @@
       <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="31"/>
+      <c r="J2" s="25"/>
       <c r="K2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1652,786 +1469,653 @@
       <c r="M2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.75">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="39"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="6">
         <v>7</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="15">
         <v>17</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="21">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.75">
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="21">
+      <c r="N4" s="15">
         <v>7</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="S4" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.75">
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="17" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="21">
+      <c r="M5" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="15">
         <v>10</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="R5" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="S5" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="47.25">
+    </row>
+    <row r="6" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="21">
+      <c r="M6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="15">
         <v>17</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="R6" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="S6" s="21">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="45.75" customHeight="1">
+    </row>
+    <row r="7" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="6">
         <v>7</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="30" t="s">
+      <c r="M7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="15">
         <v>3</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="S7" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="47.25">
+    </row>
+    <row r="8" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="8" t="s">
         <v>37</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="6">
         <v>5</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="21">
+      <c r="M8" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="15">
         <v>15</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="R8" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="S8" s="21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="63">
+    </row>
+    <row r="9" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="8" t="s">
         <v>42</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="6">
         <v>7</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="30" t="s">
+      <c r="M9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="15">
         <v>30</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="R9" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="S9" s="21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="63">
+    </row>
+    <row r="10" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="6">
         <v>5</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="30" t="s">
+      <c r="M10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="15">
         <v>10</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="R10" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="S10" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="78.75">
+    </row>
+    <row r="11" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>20</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="6">
         <v>5</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="M11" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="21">
+      <c r="M11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="15">
         <v>2</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="R11" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="S11" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="63">
+    </row>
+    <row r="12" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>6</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="6">
         <v>5</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="30" t="s">
+      <c r="M12" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="15">
         <v>4</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="R12" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="S12" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="63">
+    </row>
+    <row r="13" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="6">
         <v>10</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="30" t="s">
+      <c r="M13" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="15">
         <v>30</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="R13" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="S13" s="21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="47.25">
+    </row>
+    <row r="14" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="6">
         <v>18</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="1:19" ht="63">
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="36"/>
+    </row>
+    <row r="15" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>3</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="8"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="21"/>
-    </row>
-    <row r="16" spans="1:19" ht="31.5">
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="6"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="36"/>
+    </row>
+    <row r="16" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>5</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="8"/>
-      <c r="K16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="21"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" hidden="1">
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="6"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="36"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="6"/>
       <c r="F17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="17"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="11"/>
       <c r="K17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="21"/>
-    </row>
-    <row r="18" spans="1:14" ht="31.5" hidden="1" customHeight="1">
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="32"/>
+    </row>
+    <row r="18" spans="1:14" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="6"/>
       <c r="F18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="17"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="11"/>
       <c r="K18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="21"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" hidden="1">
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="6"/>
       <c r="F19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="17"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="11"/>
       <c r="K19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="21"/>
-    </row>
-    <row r="20" spans="1:14" ht="31.5" hidden="1" customHeight="1">
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="1:14" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="8"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="6"/>
       <c r="F20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="11"/>
       <c r="K20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="21"/>
-    </row>
-    <row r="21" spans="1:14" ht="18.75" customHeight="1">
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:14" ht="27.75" customHeight="1">
+    <row r="22" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
   </sheetData>
@@ -2448,194 +2132,4 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8D2D7E-B5E3-45DD-9BD9-69186A9DAD33}">
-  <dimension ref="B1:F20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0" xr3:uid="{64DE45BC-7E68-50A8-987D-BC2AB4F59E7B}">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="16.5" customHeight="1"/>
-    <row r="2" spans="2:6" ht="23.25" customHeight="1">
-      <c r="B2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="90">
-      <c r="B6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="30">
-      <c r="B7" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="30">
-      <c r="B8" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="48" customHeight="1">
-      <c r="B9" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="30">
-      <c r="B10" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="60">
-      <c r="B11" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="45">
-      <c r="B12" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="45">
-      <c r="B13" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="45">
-      <c r="B14" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="45">
-      <c r="B15" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="30">
-      <c r="B16" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="60">
-      <c r="B17" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="45">
-      <c r="B18" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>